--- a/docs/DPD Add Words.xlsx
+++ b/docs/DPD Add Words.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t xml:space="preserve">Digital Pāḷi Dictionary : Add Words</t>
   </si>
@@ -63,9 +63,36 @@
     <t xml:space="preserve">example_1</t>
   </si>
   <si>
+    <t xml:space="preserve">source_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">note</t>
   </si>
   <si>
+    <t xml:space="preserve">ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sabbaratti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entire night; whole evening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sabba + ratti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atha kho yasassa kulaputtassa pañcahi kāmaguṇehi samappitassa samaṅgībhūtassa paricārayamānassa paṭikacc'eva niddā okkami, parijanassapi niddā okkami, sabbarattiyo ca telapadīpo jhāyati.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinaya, mahāvagga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPD has the adverb sabbarattiṃ but here it is a noun</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -182,7 +209,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">What is the</t>
+      <t xml:space="preserve">What is the meaning? Add the </t>
     </r>
     <r>
       <rPr>
@@ -193,17 +220,18 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> English meaning </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">of the word </t>
+      <t xml:space="preserve">English meaning </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">of the word in this context.
+Add a </t>
     </r>
     <r>
       <rPr>
@@ -214,17 +242,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">in this context</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">? Add a </t>
+      <t xml:space="preserve">synonym </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">for clarity. Separate synonyms using </t>
     </r>
     <r>
       <rPr>
@@ -235,17 +263,29 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">synonym</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> for clarity. Separate synonyms using </t>
+      <t xml:space="preserve">semi-colons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">How is the word </t>
     </r>
     <r>
       <rPr>
@@ -256,29 +296,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">semi-colons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">How is the word </t>
+      <t xml:space="preserve">constructed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">? For words derived from roots, show the</t>
     </r>
     <r>
       <rPr>
@@ -289,17 +317,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">constructed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">? For words derived from roots, show the</t>
+      <t xml:space="preserve"> prefix(es) + root + suffix(es)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. For compounds, show </t>
     </r>
     <r>
       <rPr>
@@ -310,17 +338,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> prefix(es) + root + suffix(es)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. For compounds, show </t>
+      <t xml:space="preserve">component + component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Please look </t>
     </r>
     <r>
       <rPr>
@@ -331,17 +359,29 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">component + component</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Please look </t>
+      <t xml:space="preserve">DPD Grammar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> tab for typical constructions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Copy and paste the </t>
     </r>
     <r>
       <rPr>
@@ -352,29 +392,29 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DPD Grammar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> tab for typical constructions.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Copy and paste the </t>
+      <t xml:space="preserve">sentence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in which the word is found.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">In </t>
     </r>
     <r>
       <rPr>
@@ -385,17 +425,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">sentence</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> in which the word is found.</t>
+      <t xml:space="preserve">which book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is this sentence found? Please mention non-canonical references like chanting and grammar books.</t>
     </r>
   </si>
   <si>
@@ -523,7 +563,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -571,6 +611,18 @@
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -641,7 +693,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -674,6 +726,14 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -682,7 +742,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -703,15 +763,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1048576"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.88"/>
@@ -719,8 +779,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="58.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="8" style="0" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="9" style="0" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,7 +792,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -741,6 +801,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
@@ -751,7 +812,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -760,8 +821,9 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -778,8 +840,9 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>2</v>
@@ -799,7 +862,9 @@
       <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -808,36 +873,52 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
         <v>1</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>2</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -848,10 +929,11 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -868,10 +950,11 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -888,10 +971,11 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -908,10 +992,11 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -928,10 +1013,11 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -948,10 +1034,11 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -968,10 +1055,11 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -988,10 +1076,11 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1008,10 +1097,13 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1026,78 +1118,83 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="10"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -1106,32 +1203,34 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="9" t="s">
-        <v>15</v>
+      <c r="C19" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="9" t="s">
-        <v>16</v>
+      <c r="C20" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1146,12 +1245,13 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="9" t="s">
-        <v>17</v>
+      <c r="C21" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1166,12 +1266,13 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="9" t="s">
-        <v>18</v>
+      <c r="C22" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1186,12 +1287,13 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="9" t="s">
-        <v>19</v>
+      <c r="C23" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1206,12 +1308,13 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="9" t="s">
-        <v>20</v>
+      <c r="C24" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1226,12 +1329,13 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="9" t="s">
-        <v>21</v>
+      <c r="C25" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1246,12 +1350,13 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="9" t="s">
-        <v>22</v>
+      <c r="C26" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1266,12 +1371,13 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="9" t="s">
-        <v>23</v>
+      <c r="C27" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1286,12 +1392,13 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="9" t="s">
-        <v>24</v>
+      <c r="C28" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1306,12 +1413,13 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="9" t="s">
-        <v>25</v>
+      <c r="C29" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1326,12 +1434,13 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="9" t="s">
-        <v>26</v>
+      <c r="C30" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1346,12 +1455,13 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="9" t="s">
-        <v>27</v>
+      <c r="C31" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1366,12 +1476,13 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="9" t="s">
-        <v>28</v>
+      <c r="C32" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1386,12 +1497,13 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="9" t="s">
-        <v>29</v>
+      <c r="C33" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1406,12 +1518,13 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="9" t="s">
-        <v>30</v>
+      <c r="C34" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1426,12 +1539,13 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="9" t="s">
-        <v>31</v>
+      <c r="C35" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1446,12 +1560,13 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="9" t="s">
-        <v>32</v>
+      <c r="C36" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1466,12 +1581,13 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="9" t="s">
-        <v>33</v>
+      <c r="C37" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1486,12 +1602,13 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="9" t="s">
-        <v>34</v>
+      <c r="C38" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1506,12 +1623,13 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="9" t="s">
-        <v>35</v>
+      <c r="C39" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1526,12 +1644,13 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="9" t="s">
-        <v>36</v>
+      <c r="C40" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1546,12 +1665,13 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="9" t="s">
-        <v>37</v>
+      <c r="C41" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1566,12 +1686,13 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="9" t="s">
-        <v>38</v>
+      <c r="C42" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1586,12 +1707,13 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="9" t="s">
-        <v>39</v>
+      <c r="C43" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1606,12 +1728,13 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="9" t="s">
-        <v>40</v>
+      <c r="C44" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1626,12 +1749,13 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="9" t="s">
-        <v>41</v>
+      <c r="C45" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1646,11 +1770,14 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="C46" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1664,8 +1791,9 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1682,8 +1810,9 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1700,8 +1829,9 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1718,8 +1848,9 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1736,8 +1867,9 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1754,8 +1886,9 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1772,8 +1905,9 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1790,8 +1924,9 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1808,8 +1943,9 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1826,8 +1962,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1844,8 +1981,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1862,8 +2000,9 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1880,8 +2019,9 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1898,8 +2038,9 @@
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1916,8 +2057,9 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1934,8 +2076,9 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1952,8 +2095,9 @@
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1970,8 +2114,9 @@
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1988,8 +2133,9 @@
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2006,8 +2152,9 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2024,8 +2171,9 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2042,8 +2190,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2060,8 +2209,9 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2078,8 +2228,9 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2096,8 +2247,9 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2114,8 +2266,9 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2132,8 +2285,9 @@
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2150,8 +2304,9 @@
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2168,8 +2323,9 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2186,8 +2342,9 @@
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2204,8 +2361,9 @@
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2222,8 +2380,9 @@
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2240,8 +2399,9 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q78" s="3"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2258,8 +2418,9 @@
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2276,8 +2437,9 @@
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2294,8 +2456,9 @@
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2312,8 +2475,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2330,8 +2494,9 @@
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2348,8 +2513,9 @@
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2366,8 +2532,9 @@
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2384,8 +2551,9 @@
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2402,8 +2570,9 @@
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2420,8 +2589,9 @@
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2438,8 +2608,9 @@
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2456,8 +2627,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2474,8 +2646,9 @@
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2492,8 +2665,9 @@
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2510,8 +2684,9 @@
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2528,8 +2703,9 @@
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2546,8 +2722,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2564,8 +2741,9 @@
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2582,8 +2760,9 @@
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2600,8 +2779,9 @@
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2618,8 +2798,9 @@
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2636,8 +2817,9 @@
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2654,8 +2836,9 @@
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
-    </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2672,8 +2855,9 @@
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
-    </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2690,8 +2874,9 @@
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
-    </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q103" s="3"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2708,8 +2893,9 @@
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
-    </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q104" s="3"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2726,8 +2912,9 @@
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
-    </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q105" s="3"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2744,8 +2931,9 @@
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
-    </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q106" s="3"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2762,8 +2950,9 @@
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
-    </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q107" s="3"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2780,8 +2969,27 @@
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="Q108" s="3"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/DPD Add Words.xlsx
+++ b/docs/DPD Add Words.xlsx
@@ -84,7 +84,7 @@
     <t xml:space="preserve">sabba + ratti</t>
   </si>
   <si>
-    <t xml:space="preserve">atha kho yasassa kulaputtassa pañcahi kāmaguṇehi samappitassa samaṅgībhūtassa paricārayamānassa paṭikacc'eva niddā okkami, parijanassapi niddā okkami, sabbarattiyo ca telapadīpo jhāyati.</t>
+    <t xml:space="preserve">atha kho yasassa kulaputtassa pañcahi kāmaguṇehi samappitassa samaṅgībhūtassa paricārayamānassa paṭikacceva niddā okkami, parijanassapi niddā okkami, sabbarattiyo ca telapadīpo jhāyati.</t>
   </si>
   <si>
     <t xml:space="preserve">vinaya, mahāvagga</t>
@@ -693,7 +693,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -726,8 +726,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -768,7 +772,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -910,7 +914,7 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>1</v>
       </c>
@@ -931,7 +935,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>2</v>
       </c>
@@ -952,7 +956,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>3</v>
       </c>
@@ -973,7 +977,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>4</v>
       </c>
@@ -994,7 +998,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>5</v>
       </c>
@@ -1015,7 +1019,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>6</v>
       </c>
@@ -1036,7 +1040,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>7</v>
       </c>
@@ -1057,7 +1061,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>8</v>
       </c>
@@ -1078,7 +1082,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>9</v>
       </c>
@@ -1099,7 +1103,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>10</v>
       </c>
@@ -1122,7 +1126,7 @@
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1173,42 +1177,42 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="3"/>
@@ -1216,20 +1220,20 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="3"/>
@@ -1250,7 +1254,7 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="3"/>
@@ -1271,7 +1275,7 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3"/>
@@ -1292,7 +1296,7 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="3"/>
@@ -1313,7 +1317,7 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="3"/>
@@ -1334,7 +1338,7 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="3"/>
@@ -1355,7 +1359,7 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="3"/>
@@ -1376,7 +1380,7 @@
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="3"/>
@@ -1397,7 +1401,7 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="3"/>
@@ -1418,7 +1422,7 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="3"/>
@@ -1439,7 +1443,7 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3"/>
@@ -1460,7 +1464,7 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="3"/>
@@ -1481,7 +1485,7 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="3"/>
@@ -1502,7 +1506,7 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="3"/>
@@ -1523,7 +1527,7 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="3"/>
@@ -1544,7 +1548,7 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="3"/>
@@ -1565,7 +1569,7 @@
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="3"/>
@@ -1586,7 +1590,7 @@
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="3"/>
@@ -1607,7 +1611,7 @@
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="3"/>
@@ -1628,7 +1632,7 @@
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D39" s="3"/>
@@ -1649,7 +1653,7 @@
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="3"/>
@@ -1670,7 +1674,7 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="3"/>
@@ -1691,7 +1695,7 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D42" s="3"/>
@@ -1712,7 +1716,7 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="3"/>
@@ -1733,7 +1737,7 @@
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="3"/>
@@ -1754,7 +1758,7 @@
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D45" s="3"/>
@@ -1775,7 +1779,7 @@
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D46" s="3"/>
